--- a/output/fit_clients/fit_round_476.xlsx
+++ b/output/fit_clients/fit_round_476.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2250780195.693439</v>
+        <v>2525679275.506179</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1039097750405136</v>
+        <v>0.1145475711489558</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03654694705970276</v>
+        <v>0.03724622012209225</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1125390127.2131</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1634942575.641431</v>
+        <v>2633336392.688719</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1602021111753736</v>
+        <v>0.1688803371052404</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04429232954328235</v>
+        <v>0.04113337367727145</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>817471271.3603708</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3228159494.778951</v>
+        <v>4306846028.343902</v>
       </c>
       <c r="F4" t="n">
-        <v>0.119693952153775</v>
+        <v>0.115123044928944</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03098769182745947</v>
+        <v>0.03008587764941676</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>172</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1614079706.911118</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2920386737.915096</v>
+        <v>4038866181.645061</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06801939322062903</v>
+        <v>0.1009472369528539</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04355027222444473</v>
+        <v>0.03615211965384803</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>175</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1460193444.103182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2628856361.909684</v>
+        <v>1749773008.022247</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1062749817613312</v>
+        <v>0.09303481432704144</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04297681654147647</v>
+        <v>0.03776716909316664</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>89</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1314428142.513377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2102744306.436929</v>
+        <v>2535719448.203254</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07556276984579983</v>
+        <v>0.1001000104468347</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0398413353580164</v>
+        <v>0.04722564299528451</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>150</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1051372204.511916</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2439135815.018559</v>
+        <v>2394538102.086046</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1458254983201175</v>
+        <v>0.1722536827203783</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02240317514542413</v>
+        <v>0.02774636391083247</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>152</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1219567907.706768</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1916610281.557745</v>
+        <v>1935926642.929751</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1340666966776502</v>
+        <v>0.137238526348251</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02955675866641242</v>
+        <v>0.03039300253218846</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>958305178.9736919</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5092322581.450493</v>
+        <v>5095676899.619089</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1685144272481154</v>
+        <v>0.1966010143504162</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04002928251366838</v>
+        <v>0.03967015732175422</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>200</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2546161397.195317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3897345458.292439</v>
+        <v>3810546966.185121</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1889506128861113</v>
+        <v>0.1452891419780777</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04623006752621509</v>
+        <v>0.03718347569878255</v>
       </c>
       <c r="H11" t="b">
         <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>196</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1948672734.653038</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2730044496.02541</v>
+        <v>2669422161.196467</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1917856805386453</v>
+        <v>0.1274097307398337</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04479311482567623</v>
+        <v>0.03514699877615985</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>161</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1365022241.339157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5047431058.000672</v>
+        <v>5070346564.122092</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1004115453357111</v>
+        <v>0.08055356069913938</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02971615516607339</v>
+        <v>0.02936536979408379</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>159</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2523715530.752156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3700438979.288936</v>
+        <v>3609051867.623315</v>
       </c>
       <c r="F14" t="n">
-        <v>0.130491727354922</v>
+        <v>0.1774479197931262</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03474528554607522</v>
+        <v>0.04167329281133442</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>152</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1850219473.382405</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1443410193.576635</v>
+        <v>1629911021.997562</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09297673846825825</v>
+        <v>0.09586352712030491</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04780371134702171</v>
+        <v>0.0345480014744722</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>721705169.4807504</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2799353442.751321</v>
+        <v>2063720571.611998</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07818333934663006</v>
+        <v>0.09275592826015297</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03135861877378143</v>
+        <v>0.04372956802180407</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>98</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1399676725.46498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3842511233.712541</v>
+        <v>4372328541.570962</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1577633606823947</v>
+        <v>0.1545652991447268</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04847977182957697</v>
+        <v>0.03332792486264254</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>142</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1921255659.280034</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3109138228.461317</v>
+        <v>3249410706.92347</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1215072071094765</v>
+        <v>0.1273563080683311</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02694117100425212</v>
+        <v>0.0276938693208794</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>156</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1554569136.666106</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1184830266.116565</v>
+        <v>1358901362.062998</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1321151166686537</v>
+        <v>0.1762628743036039</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02123365274909195</v>
+        <v>0.02495361736961024</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>592415207.3423191</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2120495503.631116</v>
+        <v>2291437218.035477</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1463446522117661</v>
+        <v>0.1263163961360424</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0289964697426401</v>
+        <v>0.02659200843295332</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>68</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1060247765.332617</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1646766462.141221</v>
+        <v>1999423480.48</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08466712068720963</v>
+        <v>0.07702741825488595</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0407808693963608</v>
+        <v>0.03884473368022853</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>36</v>
-      </c>
-      <c r="J21" t="n">
-        <v>823383300.8478667</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3407102295.54036</v>
+        <v>2984120197.548363</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1147588490722457</v>
+        <v>0.112211278341382</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04940663883803624</v>
+        <v>0.04030588820399518</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>132</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1703551184.946815</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1463358542.282718</v>
+        <v>1317281676.212741</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1766151814421559</v>
+        <v>0.1431346413669396</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03909126267605507</v>
+        <v>0.0467692085383915</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>731679263.2685788</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2655274419.301221</v>
+        <v>3529869086.045302</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09629146004447627</v>
+        <v>0.1443607192911447</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03167740684386165</v>
+        <v>0.02947396454843958</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>140</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1327637268.090429</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1010883929.897553</v>
+        <v>1481946258.422915</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1000040408814691</v>
+        <v>0.09876396917124051</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02566315761392666</v>
+        <v>0.02354604916900195</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>505442026.4534954</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1203761566.759627</v>
+        <v>1160787549.32311</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1188985790374718</v>
+        <v>0.1213986463804809</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03406105040466934</v>
+        <v>0.03702002560755798</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>601880805.3621445</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4623005909.804531</v>
+        <v>4727601482.769423</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1232596145650594</v>
+        <v>0.1262092488262011</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02486966380341918</v>
+        <v>0.01730100015618556</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>121</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2311502934.119071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2369789463.875467</v>
+        <v>2890231768.2756</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09320222108389599</v>
+        <v>0.1137714320915221</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04602901581255128</v>
+        <v>0.04560622879275608</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>155</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1184894688.477507</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4987819243.423787</v>
+        <v>4150377833.645943</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09750951683125811</v>
+        <v>0.1477337080563822</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04205702414999087</v>
+        <v>0.03133157382414359</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>210</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2493909570.189993</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2182169486.089933</v>
+        <v>2137132048.078815</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1079884679076317</v>
+        <v>0.1399625706704806</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03777299472672804</v>
+        <v>0.03984282766890097</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1091084801.258587</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1308240055.674218</v>
+        <v>1097205695.336271</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08597257009124126</v>
+        <v>0.1026480571236559</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03576466369995171</v>
+        <v>0.05233802798529626</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>654119953.8503121</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1667207155.272868</v>
+        <v>1545795018.366566</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0914203815467162</v>
+        <v>0.07708110707299647</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03762547887032568</v>
+        <v>0.02430223966372267</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>833603680.6221946</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2310770868.916147</v>
+        <v>2926573562.350081</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1525380804622839</v>
+        <v>0.1505903283701772</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05956581724849818</v>
+        <v>0.05678263170622391</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>145</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1155385488.825225</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1369292047.879259</v>
+        <v>1125587137.019928</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08829618359508139</v>
+        <v>0.08720758940847514</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02513565918083641</v>
+        <v>0.02410579159656429</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>684646001.2238946</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1317985036.172614</v>
+        <v>1014101607.984822</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09751520219937392</v>
+        <v>0.0942506370059113</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03649921851292132</v>
+        <v>0.03117975575604978</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>658992466.9653423</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3146280905.13634</v>
+        <v>2503866673.588088</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1496727092823731</v>
+        <v>0.1343483379498405</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02490381483867515</v>
+        <v>0.02745582201482216</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>120</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1573140422.795471</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2202473412.429004</v>
+        <v>2036076913.255899</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1018508072489492</v>
+        <v>0.09318632830623888</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03057741941078174</v>
+        <v>0.03211733534798511</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>128</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1101236761.375958</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1585738871.888852</v>
+        <v>1763200160.1346</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0757245899727531</v>
+        <v>0.1034254973336567</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03830352719169342</v>
+        <v>0.03964322970938784</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>792869473.1183898</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1886212044.000046</v>
+        <v>1965031253.965921</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1659071988567883</v>
+        <v>0.1702968573887698</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02450117924145669</v>
+        <v>0.02253725539355176</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>943106033.8378621</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1197893771.490077</v>
+        <v>1165347615.282997</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1054657151934824</v>
+        <v>0.1315383064214597</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04577920371891712</v>
+        <v>0.04810399913656092</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>598946927.5925848</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1930933061.863231</v>
+        <v>1940400609.414637</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1308198509479837</v>
+        <v>0.1374240115487932</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02888585927048492</v>
+        <v>0.03441752758000891</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>115</v>
-      </c>
-      <c r="J41" t="n">
-        <v>965466611.9855993</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3796014178.285064</v>
+        <v>3933138700.097776</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1065439595766137</v>
+        <v>0.1181726723625854</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03175873165686111</v>
+        <v>0.03672749386253776</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>156</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1898007104.389467</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2419735714.681987</v>
+        <v>1902660268.803653</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1494452007401027</v>
+        <v>0.1983241458745655</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01842488751835466</v>
+        <v>0.02575188328031381</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>166</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1209867914.096868</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2288071413.741186</v>
+        <v>2021904858.2144</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07260599649992841</v>
+        <v>0.0869062906456861</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03657050970489477</v>
+        <v>0.03002684756425777</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1144035870.713636</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2451224439.65569</v>
+        <v>1779763782.6615</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1234639416463872</v>
+        <v>0.1371148823795972</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04460958214622413</v>
+        <v>0.04158811761259951</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1225612256.180084</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3536168892.224417</v>
+        <v>3503181189.857028</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1078950256600622</v>
+        <v>0.1739226158133102</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06132163650476707</v>
+        <v>0.04961965082771596</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>169</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1768084389.148673</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3586735992.918217</v>
+        <v>3981442887.492009</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1888725779933812</v>
+        <v>0.1804970956595238</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04591837538007813</v>
+        <v>0.04027675238972558</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>130</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1793367972.190604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3806988549.891877</v>
+        <v>3497275090.570735</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09775510241867186</v>
+        <v>0.1011184559468094</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03562517879908678</v>
+        <v>0.0390242894772847</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>155</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1903494320.541013</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1301957575.131113</v>
+        <v>1831829152.358239</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1551957560134618</v>
+        <v>0.1848912492903323</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03055056196635219</v>
+        <v>0.0415446992961173</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>650978850.400957</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4092084233.802905</v>
+        <v>2699392979.953959</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1190167780835321</v>
+        <v>0.1115124452771705</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03314005711852278</v>
+        <v>0.03764792979604335</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>163</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2046042099.047925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1140849991.46441</v>
+        <v>1124275016.315946</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1557598728588801</v>
+        <v>0.1371075179337307</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0500673268263243</v>
+        <v>0.03609679189377241</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>570425056.8992363</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3810982680.363629</v>
+        <v>4851954876.589169</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1269092419233402</v>
+        <v>0.1079708942071551</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03824280633559288</v>
+        <v>0.05923603435515837</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>196</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1905491407.805285</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2574990955.854056</v>
+        <v>3716348054.881609</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1259084667204084</v>
+        <v>0.1731268358602039</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02922977004319126</v>
+        <v>0.03530555701962874</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>138</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1287495539.727784</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4471592199.970218</v>
+        <v>4791506151.247069</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1583916240087551</v>
+        <v>0.1064662120420107</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03803233916364539</v>
+        <v>0.03572159328107116</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>155</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2235796201.094563</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4355758394.07243</v>
+        <v>4608678327.509724</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2101693153579727</v>
+        <v>0.1535562823185397</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02512579425467529</v>
+        <v>0.02703476344438053</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>136</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2177879187.643861</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1878364457.256258</v>
+        <v>1791851359.993095</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1200288548480459</v>
+        <v>0.1589651745947431</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05644586407790599</v>
+        <v>0.03731188086044059</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>939182214.8528241</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3364293542.309147</v>
+        <v>3269815307.88448</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1787741279673506</v>
+        <v>0.1452662360373454</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02279382907478879</v>
+        <v>0.0180144423442014</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>151</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1682146806.169357</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1720855834.269558</v>
+        <v>1883992134.457958</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1856957529589616</v>
+        <v>0.1981603507251041</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02720884635867499</v>
+        <v>0.03043036866799524</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>860427928.1329424</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5198081360.501924</v>
+        <v>3932810347.727352</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1228585368626739</v>
+        <v>0.1159154484037543</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03333184413451375</v>
+        <v>0.04101695316644041</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>132</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2599040598.438179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2497668609.842794</v>
+        <v>3304605786.932938</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1948683448791522</v>
+        <v>0.1726982202366746</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02976368064706823</v>
+        <v>0.02961810593607894</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>147</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1248834322.601376</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3148054178.556562</v>
+        <v>2425488473.455191</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1678968844424749</v>
+        <v>0.1690335689906879</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03074720078937986</v>
+        <v>0.02293086687230759</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>163</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1574027055.804332</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1629686287.117714</v>
+        <v>1457783214.798543</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1361058222541523</v>
+        <v>0.1846472318071143</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03472862358532078</v>
+        <v>0.04511962658639837</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>814843146.1125801</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4888075931.126678</v>
+        <v>5438863046.156872</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07139914755918744</v>
+        <v>0.09768863901479442</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03183418171710344</v>
+        <v>0.03818873676764539</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>136</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2444037988.34446</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4078223055.600409</v>
+        <v>4780538403.639525</v>
       </c>
       <c r="F64" t="n">
-        <v>0.131718378984979</v>
+        <v>0.1225001241285786</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02979858288885859</v>
+        <v>0.03483973262890323</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>148</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2039111569.185692</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4179767137.917533</v>
+        <v>3710841464.159853</v>
       </c>
       <c r="F65" t="n">
-        <v>0.11647001781776</v>
+        <v>0.1622119757927066</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0269772330756109</v>
+        <v>0.02838250970401958</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>170</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2089883576.836236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5279321486.582996</v>
+        <v>5423054157.647231</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1192836567587361</v>
+        <v>0.1499009704750788</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03160446634518055</v>
+        <v>0.03194840286671982</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>138</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2639660785.418061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2228351805.924847</v>
+        <v>2981691871.944719</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08899492390719921</v>
+        <v>0.06762258029450333</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03778992933342776</v>
+        <v>0.04080926341325418</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>153</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1114175986.586875</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5216955137.051964</v>
+        <v>5851389105.381799</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1167971917015653</v>
+        <v>0.1082937929053532</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03603062792451255</v>
+        <v>0.04235397620513921</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>151</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2608477638.098421</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2216733010.325522</v>
+        <v>1821348595.941565</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1374847099896188</v>
+        <v>0.1585273676985072</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04372715056699099</v>
+        <v>0.05067088803386296</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1108366538.141026</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2420495214.415576</v>
+        <v>3547616300.848682</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09134613571240649</v>
+        <v>0.09789610715415777</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04525035002864258</v>
+        <v>0.03176282758945102</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>136</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1210247546.484279</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5422338129.284274</v>
+        <v>5393738139.111344</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1591608877778854</v>
+        <v>0.172441339360862</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02691535488709149</v>
+        <v>0.03073394048696319</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>173</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2711169201.885624</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1546795918.042963</v>
+        <v>2099973503.575778</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09869229680424368</v>
+        <v>0.0952603606803962</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03203216271239313</v>
+        <v>0.04447382393794061</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>773397978.4771686</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3147186390.112125</v>
+        <v>2238158312.246481</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08109211381902241</v>
+        <v>0.09548903989671073</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03322059461625307</v>
+        <v>0.0472133279436219</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>180</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1573593177.586758</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3524285366.573251</v>
+        <v>2573716437.594085</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1718575716589573</v>
+        <v>0.1604281260104816</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02489100539075397</v>
+        <v>0.03378271380227148</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>162</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1762142703.346903</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2252796570.155347</v>
+        <v>2337491754.600584</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1203242117383547</v>
+        <v>0.138535386106336</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02880536419661363</v>
+        <v>0.0372351691826998</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1126398225.55564</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4372984415.286647</v>
+        <v>4063874448.712499</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1119425626856248</v>
+        <v>0.08247540388604936</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02235896973112002</v>
+        <v>0.02160471713332094</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2186492208.022458</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1621396178.023575</v>
+        <v>2208719854.936692</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1356265810984917</v>
+        <v>0.1556402487424294</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02312944253207982</v>
+        <v>0.02781549985773607</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>810698094.6202617</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3148229020.437336</v>
+        <v>2912421082.29136</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1157398040531532</v>
+        <v>0.1112444188020302</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04125754341271477</v>
+        <v>0.05252215396522509</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>165</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1574114536.938579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1197567565.962878</v>
+        <v>1811599356.391739</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1164175908237531</v>
+        <v>0.1488409840150152</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03723069522146195</v>
+        <v>0.02953964844437392</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>598783764.2766495</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4311326441.153342</v>
+        <v>4718462464.034779</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07214295346019843</v>
+        <v>0.07472161777814908</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03703237181801172</v>
+        <v>0.03468061446161795</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>105</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2155663235.535972</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4278412457.07538</v>
+        <v>4311837368.961538</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08544815699837392</v>
+        <v>0.0967653790249897</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02955512929418331</v>
+        <v>0.02145237161187332</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>110</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2139206202.111294</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4736431784.856071</v>
+        <v>5215785882.351211</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2098069667125136</v>
+        <v>0.2037956798256356</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01866446609364619</v>
+        <v>0.02116274217868523</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>166</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2368215891.108721</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2339368745.972601</v>
+        <v>2325634976.484667</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1188311987052697</v>
+        <v>0.1106785693770641</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04451077779620549</v>
+        <v>0.03165337926651225</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1169684400.575954</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1798032653.405795</v>
+        <v>2595729544.74379</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1068321074096323</v>
+        <v>0.09450750865293532</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04184266919570412</v>
+        <v>0.04224531745868785</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>7</v>
-      </c>
-      <c r="J84" t="n">
-        <v>899016361.3558179</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3014325008.040386</v>
+        <v>2414093866.430898</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1812310657409521</v>
+        <v>0.1248462153685079</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04179538234872347</v>
+        <v>0.04329453193754782</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>178</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1507162565.754096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1689532251.678242</v>
+        <v>2068163533.657847</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1119080694671534</v>
+        <v>0.1679780333355869</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01939868460290228</v>
+        <v>0.01701201718413544</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>60</v>
-      </c>
-      <c r="J86" t="n">
-        <v>844766110.3135477</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1250887889.528161</v>
+        <v>1468352247.159337</v>
       </c>
       <c r="F87" t="n">
-        <v>0.183174717478611</v>
+        <v>0.1227581589045394</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02755954019109797</v>
+        <v>0.03983225103494541</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>625444013.4038409</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2686463855.620477</v>
+        <v>3472837383.747643</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1424240398475605</v>
+        <v>0.1521473989060962</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02708306491639133</v>
+        <v>0.03873858108432656</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>189</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1343231927.303368</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2535571387.732558</v>
+        <v>3388209134.050876</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1348998410473098</v>
+        <v>0.1438033226481212</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02764012847865059</v>
+        <v>0.03831452611660788</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>161</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1267785766.030178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1461233029.914019</v>
+        <v>2014329774.122834</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09603251153059912</v>
+        <v>0.1161180500096669</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04137555324274977</v>
+        <v>0.05329225319945259</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>730616486.6476076</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1989243526.892431</v>
+        <v>1463943827.818709</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1300286866495001</v>
+        <v>0.1544152182762106</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05917004794903739</v>
+        <v>0.05521012222091567</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>994621737.1522444</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1886660764.980097</v>
+        <v>2077338737.985976</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1096794665895991</v>
+        <v>0.1032169238160116</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03250728087201613</v>
+        <v>0.02931325491452267</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>131</v>
-      </c>
-      <c r="J92" t="n">
-        <v>943330320.1757017</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4217838632.088065</v>
+        <v>4921911549.883061</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09214378596528436</v>
+        <v>0.1268297140574097</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04446790137460162</v>
+        <v>0.05185993355418728</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>140</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2108919302.605404</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2367509993.791479</v>
+        <v>2102786893.674722</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1470693581944481</v>
+        <v>0.109537756011121</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0419393700458408</v>
+        <v>0.03977755868928522</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1183755043.07404</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2708609887.296327</v>
+        <v>2881762071.697645</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1376399048670393</v>
+        <v>0.09573977268029664</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03788042861266879</v>
+        <v>0.04880815006864118</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>118</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1354304964.595334</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1627879413.550947</v>
+        <v>1733571923.307531</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1128256674062172</v>
+        <v>0.1356608713100537</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03955697934712107</v>
+        <v>0.0299450317551758</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>813939733.5168595</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4344502756.632292</v>
+        <v>4851654185.688628</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1096862347710134</v>
+        <v>0.1130651521018275</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02073037581024106</v>
+        <v>0.02075329807567537</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>152</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2172251462.415354</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3015183460.603384</v>
+        <v>2928607841.851214</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09620581508522393</v>
+        <v>0.09914383675261289</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0198397596536634</v>
+        <v>0.02792778052653061</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>127</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1507591716.053021</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2558248125.208997</v>
+        <v>2769565867.689746</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1014527708578211</v>
+        <v>0.1407391511683828</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03089454078419361</v>
+        <v>0.02702037040684001</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>149</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1279124016.578032</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4775013200.070202</v>
+        <v>3397829769.883317</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1652340005268814</v>
+        <v>0.1091124299293534</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02363470613926684</v>
+        <v>0.01866721277013</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>146</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2387506732.610623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2326707411.217688</v>
+        <v>2538781633.261341</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1906391255391622</v>
+        <v>0.2196502548398004</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05141142950001312</v>
+        <v>0.05654422312722538</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>195</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1163353705.715188</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_476.xlsx
+++ b/output/fit_clients/fit_round_476.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2525679275.506179</v>
+        <v>1580584928.79284</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1145475711489558</v>
+        <v>0.1061640761552185</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03724622012209225</v>
+        <v>0.04111219208630844</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2633336392.688719</v>
+        <v>1875976413.37455</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1688803371052404</v>
+        <v>0.1815593858964526</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04113337367727145</v>
+        <v>0.03345230510579256</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4306846028.343902</v>
+        <v>3531991272.31791</v>
       </c>
       <c r="F4" t="n">
-        <v>0.115123044928944</v>
+        <v>0.1149068404474637</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03008587764941676</v>
+        <v>0.03786729212487939</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4038866181.645061</v>
+        <v>3133496238.529084</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1009472369528539</v>
+        <v>0.07590643442901207</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03615211965384803</v>
+        <v>0.0463583419292862</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1749773008.022247</v>
+        <v>1988416035.484085</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09303481432704144</v>
+        <v>0.1362330214406914</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03776716909316664</v>
+        <v>0.05629635135137964</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2535719448.203254</v>
+        <v>3029555929.404908</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1001000104468347</v>
+        <v>0.1011828701443906</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04722564299528451</v>
+        <v>0.04191403479150146</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2394538102.086046</v>
+        <v>3100338716.099488</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1722536827203783</v>
+        <v>0.152468369694764</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02774636391083247</v>
+        <v>0.03222647394399319</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1935926642.929751</v>
+        <v>2098783528.669941</v>
       </c>
       <c r="F9" t="n">
-        <v>0.137238526348251</v>
+        <v>0.1416200626739281</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03039300253218846</v>
+        <v>0.0340578648264319</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5095676899.619089</v>
+        <v>3957876031.686125</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1966010143504162</v>
+        <v>0.163285972528261</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03967015732175422</v>
+        <v>0.0402410746113191</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,16 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3810546966.185121</v>
+        <v>2873095085.737704</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1452891419780777</v>
+        <v>0.1851128261089705</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03718347569878255</v>
+        <v>0.0405052085718549</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2669422161.196467</v>
+        <v>2469949346.752522</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1274097307398337</v>
+        <v>0.1420717687383761</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03514699877615985</v>
+        <v>0.03547904252475539</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5070346564.122092</v>
+        <v>3531330854.665982</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08055356069913938</v>
+        <v>0.07598160871200536</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02936536979408379</v>
+        <v>0.02193649509530818</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3609051867.623315</v>
+        <v>3136359604.821863</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1774479197931262</v>
+        <v>0.1147515635005027</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04167329281133442</v>
+        <v>0.03965508779776213</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1629911021.997562</v>
+        <v>1632206967.180373</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09586352712030491</v>
+        <v>0.09073014717843908</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0345480014744722</v>
+        <v>0.04045061071533949</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2063720571.611998</v>
+        <v>2293906733.211462</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09275592826015297</v>
+        <v>0.07441958828278637</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04372956802180407</v>
+        <v>0.03998727674724067</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4372328541.570962</v>
+        <v>3346121140.785696</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1545652991447268</v>
+        <v>0.161066675985718</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03332792486264254</v>
+        <v>0.05322723090394052</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3249410706.92347</v>
+        <v>3263402068.168425</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1273563080683311</v>
+        <v>0.125492773324257</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0276938693208794</v>
+        <v>0.03078444977647973</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1358901362.062998</v>
+        <v>1261804220.51368</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1762628743036039</v>
+        <v>0.1380053540730966</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02495361736961024</v>
+        <v>0.02533001376331471</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2291437218.035477</v>
+        <v>2041975236.159698</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1263163961360424</v>
+        <v>0.1019719427811018</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02659200843295332</v>
+        <v>0.02457653533214359</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1999423480.48</v>
+        <v>1823642292.699801</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07702741825488595</v>
+        <v>0.06723284814630492</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03884473368022853</v>
+        <v>0.04165899556281149</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2984120197.548363</v>
+        <v>3118495824.056533</v>
       </c>
       <c r="F22" t="n">
-        <v>0.112211278341382</v>
+        <v>0.1293799334655666</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04030588820399518</v>
+        <v>0.04002591013200685</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1317281676.212741</v>
+        <v>1496388471.245772</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1431346413669396</v>
+        <v>0.1239147687170778</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0467692085383915</v>
+        <v>0.05197988473926408</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3529869086.045302</v>
+        <v>2839059729.586596</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1443607192911447</v>
+        <v>0.1067023916749516</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02947396454843958</v>
+        <v>0.03228628069354081</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1481946258.422915</v>
+        <v>1269871623.879749</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09876396917124051</v>
+        <v>0.09770084887627821</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02354604916900195</v>
+        <v>0.02986257578474361</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1160787549.32311</v>
+        <v>1236077384.469836</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1213986463804809</v>
+        <v>0.1145209400409873</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03702002560755798</v>
+        <v>0.03712641339015818</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4727601482.769423</v>
+        <v>2902050032.312459</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1262092488262011</v>
+        <v>0.1267406744494828</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01730100015618556</v>
+        <v>0.02548816919581894</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2890231768.2756</v>
+        <v>3828587801.892951</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1137714320915221</v>
+        <v>0.1476375094653339</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04560622879275608</v>
+        <v>0.04544599698891397</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4150377833.645943</v>
+        <v>3776030664.295346</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1477337080563822</v>
+        <v>0.1107578359097916</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03133157382414359</v>
+        <v>0.03112782205405961</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2137132048.078815</v>
+        <v>2306219186.981159</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1399625706704806</v>
+        <v>0.1005716991185256</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03984282766890097</v>
+        <v>0.02738605826844901</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1097205695.336271</v>
+        <v>997406889.2658526</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1026480571236559</v>
+        <v>0.0882862135216546</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05233802798529626</v>
+        <v>0.03703205633301197</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1545795018.366566</v>
+        <v>1251696376.832023</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07708110707299647</v>
+        <v>0.08204218809513703</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02430223966372267</v>
+        <v>0.02392895836470463</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2926573562.350081</v>
+        <v>2489376300.129771</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1505903283701772</v>
+        <v>0.2021785710047848</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05678263170622391</v>
+        <v>0.04282842654798337</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1125587137.019928</v>
+        <v>947352963.8897678</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08720758940847514</v>
+        <v>0.08314469209473643</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02410579159656429</v>
+        <v>0.02200811886529267</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1014101607.984822</v>
+        <v>1247674905.473077</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0942506370059113</v>
+        <v>0.0911705703083508</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03117975575604978</v>
+        <v>0.04041084982837071</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2503866673.588088</v>
+        <v>2115857369.122127</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1343483379498405</v>
+        <v>0.1544772375310761</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02745582201482216</v>
+        <v>0.02474917166782853</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2036076913.255899</v>
+        <v>2816391881.135904</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09318632830623888</v>
+        <v>0.08994968730325506</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03211733534798511</v>
+        <v>0.03810669939545456</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1763200160.1346</v>
+        <v>1916089117.291441</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1034254973336567</v>
+        <v>0.08616829472519216</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03964322970938784</v>
+        <v>0.0279339994115904</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1965031253.965921</v>
+        <v>2156302825.13963</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1702968573887698</v>
+        <v>0.1513688935784011</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02253725539355176</v>
+        <v>0.02064364030081992</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1165347615.282997</v>
+        <v>1326629904.83545</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1315383064214597</v>
+        <v>0.1287269223012513</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04810399913656092</v>
+        <v>0.05730188491369376</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1940400609.414637</v>
+        <v>2322567676.63938</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1374240115487932</v>
+        <v>0.1507670921308469</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03441752758000891</v>
+        <v>0.02992457384959794</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3933138700.097776</v>
+        <v>4085974051.379923</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1181726723625854</v>
+        <v>0.1018344013019954</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03672749386253776</v>
+        <v>0.03850233390329744</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1902660268.803653</v>
+        <v>1967877628.514727</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1983241458745655</v>
+        <v>0.1513825494617588</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02575188328031381</v>
+        <v>0.01627752860977573</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2021904858.2144</v>
+        <v>1574630094.273199</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0869062906456861</v>
+        <v>0.07564345776741316</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03002684756425777</v>
+        <v>0.02679904159653855</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1779763782.6615</v>
+        <v>1951752805.62342</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1371148823795972</v>
+        <v>0.1629661156931539</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04158811761259951</v>
+        <v>0.03604608494911746</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1718,13 +1718,13 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3503181189.857028</v>
+        <v>5675098044.733014</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1739226158133102</v>
+        <v>0.159089874987309</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04961965082771596</v>
+        <v>0.05562969955483309</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3981442887.492009</v>
+        <v>4458056311.943598</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1804970956595238</v>
+        <v>0.1301305695696933</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04027675238972558</v>
+        <v>0.05849477769177749</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3497275090.570735</v>
+        <v>4251853474.697305</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1011184559468094</v>
+        <v>0.09699618117681169</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0390242894772847</v>
+        <v>0.03612677824654142</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1831829152.358239</v>
+        <v>1729498480.711522</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1848912492903323</v>
+        <v>0.1689959918559181</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0415446992961173</v>
+        <v>0.03387432871068659</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,16 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2699392979.953959</v>
+        <v>4070907578.021738</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1115124452771705</v>
+        <v>0.1455437028130895</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03764792979604335</v>
+        <v>0.04308373073752924</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1858,13 +1858,13 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1124275016.315946</v>
+        <v>1221912715.164312</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1371075179337307</v>
+        <v>0.133467144806154</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03609679189377241</v>
+        <v>0.03332597777952317</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4851954876.589169</v>
+        <v>3652229847.268348</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1079708942071551</v>
+        <v>0.1121781338553054</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05923603435515837</v>
+        <v>0.04017277950260766</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3716348054.881609</v>
+        <v>3426550834.54186</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1731268358602039</v>
+        <v>0.1403609795685749</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03530555701962874</v>
+        <v>0.03322264253985613</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4791506151.247069</v>
+        <v>3319734954.708208</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1064662120420107</v>
+        <v>0.1038164754817714</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03572159328107116</v>
+        <v>0.04513624595724032</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4608678327.509724</v>
+        <v>3134983318.108764</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1535562823185397</v>
+        <v>0.2002590130942503</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02703476344438053</v>
+        <v>0.02592524721604799</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1791851359.993095</v>
+        <v>1253906152.678247</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1589651745947431</v>
+        <v>0.1181210196126682</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03731188086044059</v>
+        <v>0.04778491527734569</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3269815307.88448</v>
+        <v>3303011031.69547</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1452662360373454</v>
+        <v>0.1201455100374398</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0180144423442014</v>
+        <v>0.02737562856524448</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1883992134.457958</v>
+        <v>1206471398.098399</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1981603507251041</v>
+        <v>0.1247678605875462</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03043036866799524</v>
+        <v>0.02695700926146429</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3932810347.727352</v>
+        <v>4103745572.551625</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1159154484037543</v>
+        <v>0.09987637581422465</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04101695316644041</v>
+        <v>0.04903175215898545</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3304605786.932938</v>
+        <v>3735206071.731693</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1726982202366746</v>
+        <v>0.2012201823242312</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02961810593607894</v>
+        <v>0.02845540563096145</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2425488473.455191</v>
+        <v>2372332435.247665</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1690335689906879</v>
+        <v>0.1736405347553625</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02293086687230759</v>
+        <v>0.02962884944928511</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1457783214.798543</v>
+        <v>1562007177.198871</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1846472318071143</v>
+        <v>0.1351706742993107</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04511962658639837</v>
+        <v>0.03578945444484526</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,13 +2194,13 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5438863046.156872</v>
+        <v>5453250999.372052</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09768863901479442</v>
+        <v>0.08823033807827148</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03818873676764539</v>
+        <v>0.0335428406844872</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4780538403.639525</v>
+        <v>3399129693.877153</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1225001241285786</v>
+        <v>0.1772831985463234</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03483973262890323</v>
+        <v>0.03179326353418257</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3710841464.159853</v>
+        <v>4404051515.353825</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1622119757927066</v>
+        <v>0.1528362597854473</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02838250970401958</v>
+        <v>0.02689918786785059</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5423054157.647231</v>
+        <v>4914564609.296779</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1499009704750788</v>
+        <v>0.1284943375124762</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03194840286671982</v>
+        <v>0.04079558757511806</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2981691871.944719</v>
+        <v>2997048349.306712</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06762258029450333</v>
+        <v>0.076846580708668</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04080926341325418</v>
+        <v>0.04041240867101782</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2334,13 +2334,13 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5851389105.381799</v>
+        <v>4923143314.074335</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1082937929053532</v>
+        <v>0.1275727654301239</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04235397620513921</v>
+        <v>0.03688192871217891</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1821348595.941565</v>
+        <v>2396150151.51758</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1585273676985072</v>
+        <v>0.1758107073489777</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05067088803386296</v>
+        <v>0.05495139480836707</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3547616300.848682</v>
+        <v>3111535061.487503</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09789610715415777</v>
+        <v>0.08187000573753263</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03176282758945102</v>
+        <v>0.04371875936251989</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5393738139.111344</v>
+        <v>5089449527.594881</v>
       </c>
       <c r="F71" t="n">
-        <v>0.172441339360862</v>
+        <v>0.1840504295918689</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03073394048696319</v>
+        <v>0.02285119421224049</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2099973503.575778</v>
+        <v>2131135183.368155</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0952603606803962</v>
+        <v>0.08193750745872556</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04447382393794061</v>
+        <v>0.04253622214457643</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2238158312.246481</v>
+        <v>3047291436.950847</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09548903989671073</v>
+        <v>0.07034830618804806</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0472133279436219</v>
+        <v>0.03328458730010808</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2573716437.594085</v>
+        <v>3460815309.762432</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1604281260104816</v>
+        <v>0.1511364858825321</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03378271380227148</v>
+        <v>0.02616335896392185</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2337491754.600584</v>
+        <v>2072162606.363142</v>
       </c>
       <c r="F75" t="n">
-        <v>0.138535386106336</v>
+        <v>0.1509672525920134</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0372351691826998</v>
+        <v>0.03265114648384328</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4063874448.712499</v>
+        <v>3953040198.069324</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08247540388604936</v>
+        <v>0.08683548868263813</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02160471713332094</v>
+        <v>0.02575185682202229</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2208719854.936692</v>
+        <v>2250396024.456562</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1556402487424294</v>
+        <v>0.1707622895240144</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02781549985773607</v>
+        <v>0.02333015481894211</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2912421082.29136</v>
+        <v>3798420431.264027</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1112444188020302</v>
+        <v>0.1003075705323372</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05252215396522509</v>
+        <v>0.04973863759303886</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1811599356.391739</v>
+        <v>1772092931.870297</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1488409840150152</v>
+        <v>0.1604642977838412</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02953964844437392</v>
+        <v>0.02620404912033377</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4718462464.034779</v>
+        <v>4413228817.24722</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07472161777814908</v>
+        <v>0.07684482147178824</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03468061446161795</v>
+        <v>0.03697912928345518</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4311837368.961538</v>
+        <v>4453548413.80432</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0967653790249897</v>
+        <v>0.09963293350267767</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02145237161187332</v>
+        <v>0.02381031260668601</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5215785882.351211</v>
+        <v>5660343133.108066</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2037956798256356</v>
+        <v>0.1505295588219507</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02116274217868523</v>
+        <v>0.0240887426439544</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2325634976.484667</v>
+        <v>2027863496.973132</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1106785693770641</v>
+        <v>0.1508720644958829</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03165337926651225</v>
+        <v>0.03128211164416083</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2595729544.74379</v>
+        <v>2288799211.536786</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09450750865293532</v>
+        <v>0.07659002876412942</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04224531745868785</v>
+        <v>0.05151976983207402</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2414093866.430898</v>
+        <v>2624053619.610727</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1248462153685079</v>
+        <v>0.1507877763327286</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04329453193754782</v>
+        <v>0.0356213572189855</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2068163533.657847</v>
+        <v>1897027473.727988</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1679780333355869</v>
+        <v>0.1722911887320406</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01701201718413544</v>
+        <v>0.01958088497263508</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1468352247.159337</v>
+        <v>1083869913.155768</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1227581589045394</v>
+        <v>0.1463080243551527</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03983225103494541</v>
+        <v>0.02696024472459031</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,16 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3472837383.747643</v>
+        <v>2580976823.697986</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1521473989060962</v>
+        <v>0.1250532317270013</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03873858108432656</v>
+        <v>0.03796961589701499</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3388209134.050876</v>
+        <v>3250123897.83257</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1438033226481212</v>
+        <v>0.1256317018869006</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03831452611660788</v>
+        <v>0.03523301078292931</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2950,13 +2950,13 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2014329774.122834</v>
+        <v>1467744667.994349</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1161180500096669</v>
+        <v>0.1291320071672932</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05329225319945259</v>
+        <v>0.04508192506927816</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1463943827.818709</v>
+        <v>1556201542.06926</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1544152182762106</v>
+        <v>0.1613014173669924</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05521012222091567</v>
+        <v>0.04720568636299061</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2077338737.985976</v>
+        <v>2400175708.909585</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1032169238160116</v>
+        <v>0.09849886238248902</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02931325491452267</v>
+        <v>0.0333655431079056</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4921911549.883061</v>
+        <v>3670104513.242272</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1268297140574097</v>
+        <v>0.1022523932642563</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05185993355418728</v>
+        <v>0.03576037662525842</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2102786893.674722</v>
+        <v>2144313124.57946</v>
       </c>
       <c r="F94" t="n">
-        <v>0.109537756011121</v>
+        <v>0.1657949548607474</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03977755868928522</v>
+        <v>0.02850973718741955</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2881762071.697645</v>
+        <v>2387893771.167767</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09573977268029664</v>
+        <v>0.118720019802815</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04880815006864118</v>
+        <v>0.03240827608913764</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1733571923.307531</v>
+        <v>2234513362.066208</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1356608713100537</v>
+        <v>0.08837823862897222</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0299450317551758</v>
+        <v>0.03825566408197441</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4851654185.688628</v>
+        <v>3919824265.154481</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1130651521018275</v>
+        <v>0.1755944670651348</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02075329807567537</v>
+        <v>0.02035349049252436</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2928607841.851214</v>
+        <v>3635927163.212835</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09914383675261289</v>
+        <v>0.09020913542286198</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02792778052653061</v>
+        <v>0.0296750793413043</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2769565867.689746</v>
+        <v>2274109356.54376</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1407391511683828</v>
+        <v>0.1041520103214117</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02702037040684001</v>
+        <v>0.02923411272434672</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3397829769.883317</v>
+        <v>4554751631.584731</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1091124299293534</v>
+        <v>0.1621981203298788</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01866721277013</v>
+        <v>0.02346464469406562</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,16 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2538781633.261341</v>
+        <v>2887303032.6342</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2196502548398004</v>
+        <v>0.1396734761864532</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05654422312722538</v>
+        <v>0.04745215425222099</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_476.xlsx
+++ b/output/fit_clients/fit_round_476.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1580584928.79284</v>
+        <v>2271834103.423525</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1061640761552185</v>
+        <v>0.08321122984093911</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04111219208630844</v>
+        <v>0.03621805432424273</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1875976413.37455</v>
+        <v>1768529338.678126</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1815593858964526</v>
+        <v>0.1346103484382757</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03345230510579256</v>
+        <v>0.04853978312968017</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3531991272.31791</v>
+        <v>3878424881.775069</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1149068404474637</v>
+        <v>0.1511046868995895</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03786729212487939</v>
+        <v>0.03111716557492392</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>240</v>
+      </c>
+      <c r="J4" t="n">
+        <v>476</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3133496238.529084</v>
+        <v>2643650784.908865</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07590643442901207</v>
+        <v>0.09334533310242714</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0463583419292862</v>
+        <v>0.0439571990949857</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>201</v>
+      </c>
+      <c r="J5" t="n">
+        <v>475</v>
+      </c>
+      <c r="K5" t="n">
+        <v>17.24215813095917</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1988416035.484085</v>
+        <v>2738351852.447479</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1362330214406914</v>
+        <v>0.1320049332960284</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05629635135137964</v>
+        <v>0.03634263013780298</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3029555929.404908</v>
+        <v>2313319816.946826</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1011828701443906</v>
+        <v>0.09346435471142947</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04191403479150146</v>
+        <v>0.04668202671097146</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3100338716.099488</v>
+        <v>2875073871.729713</v>
       </c>
       <c r="F8" t="n">
-        <v>0.152468369694764</v>
+        <v>0.1611608339867812</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03222647394399319</v>
+        <v>0.02872794848873619</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>135</v>
+      </c>
+      <c r="J8" t="n">
+        <v>470</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2098783528.669941</v>
+        <v>2263634271.966598</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1416200626739281</v>
+        <v>0.1766042175762428</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0340578648264319</v>
+        <v>0.03075377954774339</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,17 +783,24 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3957876031.686125</v>
+        <v>5704272679.109617</v>
       </c>
       <c r="F10" t="n">
-        <v>0.163285972528261</v>
+        <v>0.2162511140621835</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0402410746113191</v>
+        <v>0.03323936724030961</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>363</v>
+      </c>
+      <c r="J10" t="n">
+        <v>476</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -738,17 +818,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2873095085.737704</v>
+        <v>3724653776.844451</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1851128261089705</v>
+        <v>0.1326737461552092</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0405052085718549</v>
+        <v>0.04336995213107305</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>197</v>
+      </c>
+      <c r="J11" t="n">
+        <v>476</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2469949346.752522</v>
+        <v>2840662185.086281</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1420717687383761</v>
+        <v>0.1780182870245164</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03547904252475539</v>
+        <v>0.03300416282732435</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3531330854.665982</v>
+        <v>4097136745.424809</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07598160871200536</v>
+        <v>0.09132167849469482</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02193649509530818</v>
+        <v>0.02680684214147002</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>247</v>
+      </c>
+      <c r="J13" t="n">
+        <v>475</v>
+      </c>
+      <c r="K13" t="n">
+        <v>30.68278534792622</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3136359604.821863</v>
+        <v>3851552229.166356</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1147515635005027</v>
+        <v>0.1689559469868916</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03965508779776213</v>
+        <v>0.04386349169327954</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>108</v>
+      </c>
+      <c r="J14" t="n">
+        <v>476</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1632206967.180373</v>
+        <v>1564190073.992123</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09073014717843908</v>
+        <v>0.09464158607072411</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04045061071533949</v>
+        <v>0.03273580297039758</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2293906733.211462</v>
+        <v>2422409509.496572</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07441958828278637</v>
+        <v>0.07126210448559628</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03998727674724067</v>
+        <v>0.0417807765739789</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1030,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3346121140.785696</v>
+        <v>3923487162.599229</v>
       </c>
       <c r="F17" t="n">
-        <v>0.161066675985718</v>
+        <v>0.1342493868330946</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05322723090394052</v>
+        <v>0.0509640263301812</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>233</v>
+      </c>
+      <c r="J17" t="n">
+        <v>475</v>
+      </c>
+      <c r="K17" t="n">
+        <v>30.66290413376511</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3263402068.168425</v>
+        <v>3215898478.623237</v>
       </c>
       <c r="F18" t="n">
-        <v>0.125492773324257</v>
+        <v>0.1239413921094525</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03078444977647973</v>
+        <v>0.03200206645820402</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>127</v>
+      </c>
+      <c r="J18" t="n">
+        <v>470</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1261804220.51368</v>
+        <v>1228042412.10669</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1380053540730966</v>
+        <v>0.1172632657488673</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02533001376331471</v>
+        <v>0.02658580643129184</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2041975236.159698</v>
+        <v>1721792726.827798</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1019719427811018</v>
+        <v>0.1585550124479783</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02457653533214359</v>
+        <v>0.02030192423493029</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1172,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1823642292.699801</v>
+        <v>2475185893.229477</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06723284814630492</v>
+        <v>0.07180951825310265</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04165899556281149</v>
+        <v>0.03930830182238613</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3118495824.056533</v>
+        <v>4039731757.976355</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1293799334655666</v>
+        <v>0.09119850946840466</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04002591013200685</v>
+        <v>0.05506033317728238</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>138</v>
+      </c>
+      <c r="J22" t="n">
+        <v>476</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1496388471.245772</v>
+        <v>1543453578.434385</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1239147687170778</v>
+        <v>0.1151525360407395</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05197988473926408</v>
+        <v>0.05051461990419659</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1271,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2839059729.586596</v>
+        <v>2636438914.592287</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1067023916749516</v>
+        <v>0.1127686612243767</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03228628069354081</v>
+        <v>0.03745156716542275</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>151</v>
+      </c>
+      <c r="J24" t="n">
+        <v>472</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1306,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1269871623.879749</v>
+        <v>1029080050.087051</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09770084887627821</v>
+        <v>0.07753325076567899</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02986257578474361</v>
+        <v>0.02371979818875337</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1347,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1236077384.469836</v>
+        <v>934067855.6539953</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1145209400409873</v>
+        <v>0.08385260689598351</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03712641339015818</v>
+        <v>0.02848485712556436</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1382,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2902050032.312459</v>
+        <v>3404052197.972018</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1267406744494828</v>
+        <v>0.1260923674677186</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02548816919581894</v>
+        <v>0.01681339732397762</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>211</v>
+      </c>
+      <c r="J27" t="n">
+        <v>475</v>
+      </c>
+      <c r="K27" t="n">
+        <v>24.80042795791737</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3828587801.892951</v>
+        <v>3469391944.328034</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1476375094653339</v>
+        <v>0.1336966800654561</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04544599698891397</v>
+        <v>0.03223235712078813</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>117</v>
+      </c>
+      <c r="J28" t="n">
+        <v>471</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3776030664.295346</v>
+        <v>3916668426.981084</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1107578359097916</v>
+        <v>0.1186010499152541</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03112782205405961</v>
+        <v>0.04053068715789072</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>379</v>
+      </c>
+      <c r="J29" t="n">
+        <v>475</v>
+      </c>
+      <c r="K29" t="n">
+        <v>29.01227530964817</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2306219186.981159</v>
+        <v>1569673258.533427</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1005716991185256</v>
+        <v>0.1017660594373091</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02738605826844901</v>
+        <v>0.03039369672451218</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>997406889.2658526</v>
+        <v>993963014.8346785</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0882862135216546</v>
+        <v>0.1006558761366405</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03703205633301197</v>
+        <v>0.03380559240439974</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1251696376.832023</v>
+        <v>1232073508.829744</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08204218809513703</v>
+        <v>0.07572570855713284</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02392895836470463</v>
+        <v>0.02770692423395205</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2489376300.129771</v>
+        <v>2750755722.847991</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2021785710047848</v>
+        <v>0.1681327337893143</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04282842654798337</v>
+        <v>0.05779604225764979</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>947352963.8897678</v>
+        <v>1513522150.209728</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08314469209473643</v>
+        <v>0.09178408567146085</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02200811886529267</v>
+        <v>0.02330095943545158</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1247674905.473077</v>
+        <v>1214085772.080842</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0911705703083508</v>
+        <v>0.07152978989985583</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04041084982837071</v>
+        <v>0.03460289537510414</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2115857369.122127</v>
+        <v>2522454219.151454</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1544772375310761</v>
+        <v>0.1619165638938866</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02474917166782853</v>
+        <v>0.02641263854678906</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2816391881.135904</v>
+        <v>2808398126.529692</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08994968730325506</v>
+        <v>0.07126168468966095</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03810669939545456</v>
+        <v>0.02661183925922024</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1916089117.291441</v>
+        <v>1536340195.362741</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08616829472519216</v>
+        <v>0.0779911448236586</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0279339994115904</v>
+        <v>0.03356237785897356</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2156302825.13963</v>
+        <v>2048167496.750207</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1513688935784011</v>
+        <v>0.1914634300480501</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02064364030081992</v>
+        <v>0.02065352428918311</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1326629904.83545</v>
+        <v>1795029832.217722</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1287269223012513</v>
+        <v>0.1564938473940078</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05730188491369376</v>
+        <v>0.05007408759552467</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2322567676.63938</v>
+        <v>2245935449.302728</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1507670921308469</v>
+        <v>0.1027912257467468</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02992457384959794</v>
+        <v>0.03384431638506711</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4085974051.379923</v>
+        <v>2642392085.705002</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1018344013019954</v>
+        <v>0.09511221195316845</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03850233390329744</v>
+        <v>0.04349437867029955</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>207</v>
+      </c>
+      <c r="J42" t="n">
+        <v>473</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1967877628.514727</v>
+        <v>2674777906.750812</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1513825494617588</v>
+        <v>0.1764879875351915</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01627752860977573</v>
+        <v>0.0241416416336564</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1574630094.273199</v>
+        <v>1538104707.054471</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07564345776741316</v>
+        <v>0.08950296631001976</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02679904159653855</v>
+        <v>0.03297542858657017</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1951752805.62342</v>
+        <v>2376188014.301126</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1629661156931539</v>
+        <v>0.1333668738895421</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03604608494911746</v>
+        <v>0.0440971809376131</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5675098044.733014</v>
+        <v>5022665393.955816</v>
       </c>
       <c r="F46" t="n">
-        <v>0.159089874987309</v>
+        <v>0.1215274705415576</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05562969955483309</v>
+        <v>0.04852028570093064</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>281</v>
+      </c>
+      <c r="J46" t="n">
+        <v>475</v>
+      </c>
+      <c r="K46" t="n">
+        <v>28.64740657870773</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +2088,25 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4458056311.943598</v>
+        <v>4454116001.634738</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1301305695696933</v>
+        <v>0.1597198897952996</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05849477769177749</v>
+        <v>0.05423216406022959</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>215</v>
+      </c>
+      <c r="J47" t="n">
+        <v>476</v>
+      </c>
+      <c r="K47" t="n">
+        <v>32.05256085860085</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2119,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4251853474.697305</v>
+        <v>3064556437.971236</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09699618117681169</v>
+        <v>0.09992196062543482</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03612677824654142</v>
+        <v>0.03231047530130535</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>238</v>
+      </c>
+      <c r="J48" t="n">
+        <v>475</v>
+      </c>
+      <c r="K48" t="n">
+        <v>19.80825433869813</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1729498480.711522</v>
+        <v>1258830730.771979</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1689959918559181</v>
+        <v>0.1774694525938645</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03387432871068659</v>
+        <v>0.04197656502470126</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4070907578.021738</v>
+        <v>2654536745.832787</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1455437028130895</v>
+        <v>0.1345650321428125</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04308373073752924</v>
+        <v>0.05147935061176576</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>170</v>
+      </c>
+      <c r="J50" t="n">
+        <v>474</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1221912715.164312</v>
+        <v>1015073754.704178</v>
       </c>
       <c r="F51" t="n">
-        <v>0.133467144806154</v>
+        <v>0.1203756346458039</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03332597777952317</v>
+        <v>0.04000948827116543</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2261,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3652229847.268348</v>
+        <v>3281170340.497974</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1121781338553054</v>
+        <v>0.09440455118041734</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04017277950260766</v>
+        <v>0.04585650913676097</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>267</v>
+      </c>
+      <c r="J52" t="n">
+        <v>474</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3426550834.54186</v>
+        <v>2451955321.059554</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1403609795685749</v>
+        <v>0.1844389508949291</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03322264253985613</v>
+        <v>0.03392831815242665</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>74</v>
+      </c>
+      <c r="J53" t="n">
+        <v>471</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,17 +2337,24 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3319734954.708208</v>
+        <v>4703615950.209401</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1038164754817714</v>
+        <v>0.1394457550772227</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04513624595724032</v>
+        <v>0.04304850861760801</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>251</v>
+      </c>
+      <c r="J54" t="n">
+        <v>476</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,23 +2366,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3134983318.108764</v>
+        <v>4550254866.353195</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2002590130942503</v>
+        <v>0.1614756016810272</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02592524721604799</v>
+        <v>0.03034073424596453</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>235</v>
+      </c>
+      <c r="J55" t="n">
+        <v>476</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1253906152.678247</v>
+        <v>1867560726.522313</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1181210196126682</v>
+        <v>0.1092428002252415</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04778491527734569</v>
+        <v>0.04815732563261914</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2442,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3303011031.69547</v>
+        <v>3648232432.160719</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1201455100374398</v>
+        <v>0.1147768338156613</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02737562856524448</v>
+        <v>0.02304404694136571</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>205</v>
+      </c>
+      <c r="J57" t="n">
+        <v>475</v>
+      </c>
+      <c r="K57" t="n">
+        <v>30.31513907554116</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1206471398.098399</v>
+        <v>1156813936.695599</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1247678605875462</v>
+        <v>0.1348265690470794</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02695700926146429</v>
+        <v>0.03733168503050101</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2508,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4103745572.551625</v>
+        <v>3561129534.462182</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09987637581422465</v>
+        <v>0.1162198636372885</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04903175215898545</v>
+        <v>0.03695795426400823</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>233</v>
+      </c>
+      <c r="J59" t="n">
+        <v>476</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2543,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3735206071.731693</v>
+        <v>3585138629.798496</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2012201823242312</v>
+        <v>0.1563045685137582</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02845540563096145</v>
+        <v>0.03292621658598163</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>95</v>
+      </c>
+      <c r="J60" t="n">
+        <v>476</v>
+      </c>
+      <c r="K60" t="n">
+        <v>44.14328854711919</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2372332435.247665</v>
+        <v>3275419680.091364</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1736405347553625</v>
+        <v>0.1116659271869597</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02962884944928511</v>
+        <v>0.02529105907629534</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2621,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1562007177.198871</v>
+        <v>2003543269.501177</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1351706742993107</v>
+        <v>0.1803024638045022</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03578945444484526</v>
+        <v>0.03809240162897281</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5453250999.372052</v>
+        <v>4823919422.926187</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08823033807827148</v>
+        <v>0.08663058098471717</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0335428406844872</v>
+        <v>0.03018061610949412</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>237</v>
+      </c>
+      <c r="J63" t="n">
+        <v>476</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,16 +2691,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3399129693.877153</v>
+        <v>4706335363.603014</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1772831985463234</v>
+        <v>0.1465575698185569</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03179326353418257</v>
+        <v>0.03098335521437289</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>238</v>
+      </c>
+      <c r="J64" t="n">
+        <v>475</v>
+      </c>
+      <c r="K64" t="n">
+        <v>28.07453712115351</v>
       </c>
     </row>
     <row r="65">
@@ -2244,23 +2722,30 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4404051515.353825</v>
+        <v>4201206759.43645</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1528362597854473</v>
+        <v>0.1643644614384621</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02689918786785059</v>
+        <v>0.03093721838178142</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>335</v>
+      </c>
+      <c r="J65" t="n">
+        <v>476</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,22 +2757,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4914564609.296779</v>
+        <v>4860709267.524483</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1284943375124762</v>
+        <v>0.1374084612566482</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04079558757511806</v>
+        <v>0.04228836885934888</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>235</v>
+      </c>
+      <c r="J66" t="n">
+        <v>475</v>
+      </c>
+      <c r="K66" t="n">
+        <v>27.98953873737119</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2997048349.306712</v>
+        <v>3230841723.617819</v>
       </c>
       <c r="F67" t="n">
-        <v>0.076846580708668</v>
+        <v>0.09331506269440733</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04041240867101782</v>
+        <v>0.04098241363381224</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>14</v>
+      </c>
+      <c r="J67" t="n">
+        <v>456</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4923143314.074335</v>
+        <v>4602660261.148924</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1275727654301239</v>
+        <v>0.1478021320674122</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03688192871217891</v>
+        <v>0.0500208305909975</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>259</v>
+      </c>
+      <c r="J68" t="n">
+        <v>475</v>
+      </c>
+      <c r="K68" t="n">
+        <v>29.86272269676378</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2396150151.51758</v>
+        <v>1551887541.403007</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1758107073489777</v>
+        <v>0.141508916492531</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05495139480836707</v>
+        <v>0.04267503292486324</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3111535061.487503</v>
+        <v>3254511791.578486</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08187000573753263</v>
+        <v>0.08007671011679016</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04371875936251989</v>
+        <v>0.03167502553912134</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>71</v>
+      </c>
+      <c r="J70" t="n">
+        <v>468</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2942,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5089449527.594881</v>
+        <v>5459021007.827651</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1840504295918689</v>
+        <v>0.1441638814036138</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02285119421224049</v>
+        <v>0.02876785048762329</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>322</v>
+      </c>
+      <c r="J71" t="n">
+        <v>476</v>
+      </c>
+      <c r="K71" t="n">
+        <v>31.93179619370736</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2131135183.368155</v>
+        <v>1408152277.013137</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08193750745872556</v>
+        <v>0.08005018041441037</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04253622214457643</v>
+        <v>0.05093475467782344</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3047291436.950847</v>
+        <v>3249399133.46917</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07034830618804806</v>
+        <v>0.06832879727822487</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03328458730010808</v>
+        <v>0.05049420617072857</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>43</v>
+      </c>
+      <c r="J73" t="n">
+        <v>472</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3460815309.762432</v>
+        <v>3374046103.337451</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1511364858825321</v>
+        <v>0.1162566484440719</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02616335896392185</v>
+        <v>0.02435514248746021</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>142</v>
+      </c>
+      <c r="J74" t="n">
+        <v>474</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2072162606.363142</v>
+        <v>2068825191.765149</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1509672525920134</v>
+        <v>0.1462399667050412</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03265114648384328</v>
+        <v>0.03289945097744671</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3953040198.069324</v>
+        <v>5316581342.745976</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08683548868263813</v>
+        <v>0.1080198508933077</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02575185682202229</v>
+        <v>0.02478445630772307</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>227</v>
+      </c>
+      <c r="J76" t="n">
+        <v>476</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2250396024.456562</v>
+        <v>2081648484.304579</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1707622895240144</v>
+        <v>0.1530910094084975</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02333015481894211</v>
+        <v>0.02788411035362585</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3183,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3798420431.264027</v>
+        <v>4630033331.353785</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1003075705323372</v>
+        <v>0.1277988939233411</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04973863759303886</v>
+        <v>0.03445460794384832</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>236</v>
+      </c>
+      <c r="J78" t="n">
+        <v>476</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3218,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1772092931.870297</v>
+        <v>1815381181.972126</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1604642977838412</v>
+        <v>0.1600352001946768</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02620404912033377</v>
+        <v>0.03289103384453555</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3253,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4413228817.24722</v>
+        <v>4567202590.217529</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07684482147178824</v>
+        <v>0.1004967889416394</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03697912928345518</v>
+        <v>0.03867130456114739</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>232</v>
+      </c>
+      <c r="J80" t="n">
+        <v>476</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3288,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4453548413.80432</v>
+        <v>3920536377.98522</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09963293350267767</v>
+        <v>0.1000676699972166</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02381031260668601</v>
+        <v>0.03168744776584072</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>222</v>
+      </c>
+      <c r="J81" t="n">
+        <v>475</v>
+      </c>
+      <c r="K81" t="n">
+        <v>28.40205824912381</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3325,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5660343133.108066</v>
+        <v>5152434802.11473</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1505295588219507</v>
+        <v>0.1904271187774837</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0240887426439544</v>
+        <v>0.02857695612927361</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>313</v>
+      </c>
+      <c r="J82" t="n">
+        <v>476</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3360,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2027863496.973132</v>
+        <v>1680242182.611041</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1508720644958829</v>
+        <v>0.1256620466140038</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03128211164416083</v>
+        <v>0.03926292097509316</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3395,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2288799211.536786</v>
+        <v>2444879159.540742</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07659002876412942</v>
+        <v>0.0843119788534077</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05151976983207402</v>
+        <v>0.0350013198703837</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,16 +3436,25 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2624053619.610727</v>
+        <v>3067259462.991509</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1507877763327286</v>
+        <v>0.1674570842607153</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0356213572189855</v>
+        <v>0.05538280772160897</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>68</v>
+      </c>
+      <c r="J85" t="n">
+        <v>476</v>
+      </c>
+      <c r="K85" t="n">
+        <v>37.78449762200339</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3467,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1897027473.727988</v>
+        <v>2724890645.290568</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1722911887320406</v>
+        <v>0.115379701220172</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01958088497263508</v>
+        <v>0.02206157311291758</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3502,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1083869913.155768</v>
+        <v>937609019.6607275</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1463080243551527</v>
+        <v>0.1261351126391967</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02696024472459031</v>
+        <v>0.03234988534013179</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3537,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2580976823.697986</v>
+        <v>3679778172.300285</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1250532317270013</v>
+        <v>0.1344409209986503</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03796961589701499</v>
+        <v>0.03780900969349806</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>66</v>
+      </c>
+      <c r="J88" t="n">
+        <v>476</v>
+      </c>
+      <c r="K88" t="n">
+        <v>49.4724510529581</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3250123897.83257</v>
+        <v>2663682264.429955</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1256317018869006</v>
+        <v>0.1301170850010201</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03523301078292931</v>
+        <v>0.02731947091419933</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>27</v>
+      </c>
+      <c r="J89" t="n">
+        <v>466</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1467744667.994349</v>
+        <v>1524889484.200617</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1291320071672932</v>
+        <v>0.1029002823527352</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04508192506927816</v>
+        <v>0.04046694748097347</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3650,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1556201542.06926</v>
+        <v>1736526190.465816</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1613014173669924</v>
+        <v>0.1615876485655232</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04720568636299061</v>
+        <v>0.04932637725705088</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2400175708.909585</v>
+        <v>1845187012.946317</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09849886238248902</v>
+        <v>0.07987810848275827</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0333655431079056</v>
+        <v>0.04531310080677935</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3670104513.242272</v>
+        <v>4226042047.753437</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1022523932642563</v>
+        <v>0.1166281348701031</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03576037662525842</v>
+        <v>0.05456566176588412</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>227</v>
+      </c>
+      <c r="J93" t="n">
+        <v>475</v>
+      </c>
+      <c r="K93" t="n">
+        <v>31.31923927218006</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2144313124.57946</v>
+        <v>1907676292.216195</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1657949548607474</v>
+        <v>0.1376717183543249</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02850973718741955</v>
+        <v>0.03662256519235371</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2387893771.167767</v>
+        <v>2463155918.774512</v>
       </c>
       <c r="F95" t="n">
-        <v>0.118720019802815</v>
+        <v>0.10696182108142</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03240827608913764</v>
+        <v>0.04883210299051579</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2234513362.066208</v>
+        <v>1506115100.303449</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08837823862897222</v>
+        <v>0.1010286255375756</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03825566408197441</v>
+        <v>0.04656330733538681</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3919824265.154481</v>
+        <v>3366049570.609352</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1755944670651348</v>
+        <v>0.1333251555044246</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02035349049252436</v>
+        <v>0.02442293578581228</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>248</v>
+      </c>
+      <c r="J97" t="n">
+        <v>475</v>
+      </c>
+      <c r="K97" t="n">
+        <v>21.50313272146392</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3635927163.212835</v>
+        <v>2909602261.083071</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09020913542286198</v>
+        <v>0.1287955065293752</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0296750793413043</v>
+        <v>0.03193224046600135</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>121</v>
+      </c>
+      <c r="J98" t="n">
+        <v>475</v>
+      </c>
+      <c r="K98" t="n">
+        <v>23.7436539263762</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2274109356.54376</v>
+        <v>3143110816.502928</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1041520103214117</v>
+        <v>0.1239919834878507</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02923411272434672</v>
+        <v>0.03350864849256553</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4554751631.584731</v>
+        <v>4645011948.191224</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1621981203298788</v>
+        <v>0.1219335743290616</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02346464469406562</v>
+        <v>0.02769673108320306</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>222</v>
+      </c>
+      <c r="J100" t="n">
+        <v>476</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2887303032.6342</v>
+        <v>2431887094.883631</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1396734761864532</v>
+        <v>0.1440564720616994</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04745215425222099</v>
+        <v>0.04359887115997997</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
